--- a/data/depot/Spending Drivers - Transit - Transit Usage and Service Measures.xlsx
+++ b/data/depot/Spending Drivers - Transit - Transit Usage and Service Measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Transit Usage Measurements" sheetId="1" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
